--- a/TestInputs/UserManagement.xlsx
+++ b/TestInputs/UserManagement.xlsx
@@ -613,7 +613,7 @@
     <t>wait for add-circle      (13)</t>
   </si>
   <si>
-    <t>Wait for logoutIcon     (1.e)</t>
+    <t>Wait for logoutIcon   (1.end)</t>
   </si>
   <si>
     <t>wait for add-circle      (6)</t>
@@ -862,7 +862,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -10357,8 +10357,8 @@
   </sheetPr>
   <dimension ref="A1:F329"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A291" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D301" activeCellId="0" sqref="D301"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A313" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B332" activeCellId="0" sqref="B332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
